--- a/DataBase/Datos para pruebas.xlsx
+++ b/DataBase/Datos para pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\mesaWeb\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBAD6FB-6745-47FA-BCE2-F6F6FECE574F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6C986F-18CC-438A-86E8-956F67827378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -12193,20 +12193,20 @@
   <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12316,7 +12316,7 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6">
@@ -12326,7 +12326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12336,7 +12336,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E7">
@@ -12346,7 +12346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12356,7 +12356,7 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E8">
@@ -12366,7 +12366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12376,7 +12376,7 @@
       <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E9">
@@ -12386,7 +12386,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12606,7 +12606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -14086,7 +14086,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -14366,7 +14366,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -14586,7 +14586,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -14646,7 +14646,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -14706,7 +14706,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -14866,7 +14866,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -15126,7 +15126,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -15446,7 +15446,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -15726,7 +15726,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -15766,7 +15766,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -15926,7 +15926,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -16046,7 +16046,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -16126,7 +16126,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -16266,7 +16266,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -16286,7 +16286,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -16406,7 +16406,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -16506,7 +16506,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -16586,7 +16586,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -16686,7 +16686,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -16806,7 +16806,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -16886,7 +16886,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -16926,7 +16926,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -17246,7 +17246,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -17286,7 +17286,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -17326,7 +17326,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -17366,7 +17366,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -17426,7 +17426,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -17446,7 +17446,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -17466,7 +17466,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -17526,7 +17526,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -17666,7 +17666,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -17946,7 +17946,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -18126,7 +18126,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -18246,7 +18246,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -18266,7 +18266,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -18446,7 +18446,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -18626,7 +18626,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -18666,7 +18666,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -18686,7 +18686,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -18706,7 +18706,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -18726,7 +18726,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -18786,7 +18786,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -18846,7 +18846,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -18866,7 +18866,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -18906,7 +18906,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -19026,7 +19026,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -19126,7 +19126,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -19266,7 +19266,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -19286,7 +19286,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -19306,7 +19306,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -19326,7 +19326,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -19446,7 +19446,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -19486,7 +19486,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -19546,7 +19546,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -19566,7 +19566,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -19626,7 +19626,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -19646,7 +19646,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -19746,7 +19746,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -19806,7 +19806,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -19966,7 +19966,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -20026,7 +20026,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -20046,7 +20046,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -20066,7 +20066,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -20126,7 +20126,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -20166,7 +20166,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -20186,7 +20186,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
@@ -20246,7 +20246,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -20306,7 +20306,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -20326,7 +20326,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -20346,7 +20346,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
@@ -20386,7 +20386,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>
@@ -20406,7 +20406,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>410</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>411</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>412</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>413</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>414</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>415</v>
       </c>
@@ -20526,7 +20526,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>416</v>
       </c>
@@ -20546,7 +20546,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>417</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>418</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>419</v>
       </c>
@@ -20606,7 +20606,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>420</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>421</v>
       </c>
@@ -20646,7 +20646,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>422</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>423</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>424</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>425</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>426</v>
       </c>
@@ -20746,7 +20746,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>427</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>428</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>429</v>
       </c>
@@ -20806,7 +20806,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>430</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>431</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>432</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>433</v>
       </c>
@@ -20886,7 +20886,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>434</v>
       </c>
@@ -20906,7 +20906,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>435</v>
       </c>
@@ -20926,7 +20926,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>436</v>
       </c>
@@ -20946,7 +20946,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>437</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>438</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>439</v>
       </c>
@@ -21006,7 +21006,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>440</v>
       </c>
@@ -21026,7 +21026,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>441</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>442</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>443</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>444</v>
       </c>
@@ -21106,7 +21106,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>445</v>
       </c>
@@ -21126,7 +21126,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>446</v>
       </c>
@@ -21146,7 +21146,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>447</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>448</v>
       </c>
@@ -21186,7 +21186,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>449</v>
       </c>
@@ -21206,7 +21206,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>450</v>
       </c>
@@ -21226,7 +21226,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>451</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>452</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>453</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>454</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>455</v>
       </c>
@@ -21326,7 +21326,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>456</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>457</v>
       </c>
@@ -21366,7 +21366,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>458</v>
       </c>
@@ -21386,7 +21386,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>459</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>460</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>461</v>
       </c>
@@ -21446,7 +21446,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>462</v>
       </c>
@@ -21466,7 +21466,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>463</v>
       </c>
@@ -21486,7 +21486,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>464</v>
       </c>
@@ -21506,7 +21506,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>465</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>466</v>
       </c>
@@ -21546,7 +21546,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>467</v>
       </c>
@@ -21566,7 +21566,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>468</v>
       </c>
@@ -21586,7 +21586,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>469</v>
       </c>
@@ -21606,7 +21606,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>470</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>471</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>472</v>
       </c>
@@ -21666,7 +21666,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>473</v>
       </c>
@@ -21686,7 +21686,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>474</v>
       </c>
@@ -21706,7 +21706,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>475</v>
       </c>
@@ -21726,7 +21726,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>476</v>
       </c>
@@ -21746,7 +21746,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>477</v>
       </c>
@@ -21766,7 +21766,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>478</v>
       </c>
@@ -21786,7 +21786,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>479</v>
       </c>
@@ -21806,7 +21806,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>480</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>481</v>
       </c>
@@ -21846,7 +21846,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>482</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>483</v>
       </c>
@@ -21886,7 +21886,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>484</v>
       </c>
@@ -21906,7 +21906,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>485</v>
       </c>
@@ -21926,7 +21926,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>486</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>487</v>
       </c>
@@ -21966,7 +21966,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>488</v>
       </c>
@@ -21986,7 +21986,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>489</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>490</v>
       </c>
@@ -22026,7 +22026,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>491</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>492</v>
       </c>
@@ -22066,7 +22066,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>493</v>
       </c>
@@ -22086,7 +22086,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>494</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>495</v>
       </c>
@@ -22126,7 +22126,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>496</v>
       </c>
@@ -22146,7 +22146,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>497</v>
       </c>
@@ -22166,7 +22166,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>498</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>499</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>500</v>
       </c>
@@ -22226,7 +22226,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>501</v>
       </c>
@@ -22246,7 +22246,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>502</v>
       </c>
@@ -22266,7 +22266,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>503</v>
       </c>
@@ -22286,7 +22286,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>504</v>
       </c>
@@ -22306,7 +22306,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>505</v>
       </c>
@@ -22326,7 +22326,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>506</v>
       </c>
@@ -22346,7 +22346,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>507</v>
       </c>
@@ -22366,7 +22366,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>508</v>
       </c>
@@ -22386,7 +22386,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>509</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>510</v>
       </c>
@@ -22426,7 +22426,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>511</v>
       </c>
@@ -22446,7 +22446,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>512</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>513</v>
       </c>
@@ -22486,7 +22486,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>514</v>
       </c>
@@ -22506,7 +22506,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>515</v>
       </c>
@@ -22526,7 +22526,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>516</v>
       </c>
@@ -22546,7 +22546,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>517</v>
       </c>
@@ -22566,7 +22566,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>518</v>
       </c>
@@ -22586,7 +22586,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>519</v>
       </c>
@@ -22606,7 +22606,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>520</v>
       </c>
@@ -22626,7 +22626,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>521</v>
       </c>
@@ -22646,7 +22646,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>522</v>
       </c>
@@ -22666,7 +22666,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>523</v>
       </c>
@@ -22686,7 +22686,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>524</v>
       </c>
@@ -22706,7 +22706,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>525</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>526</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>527</v>
       </c>
@@ -22766,7 +22766,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>528</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>529</v>
       </c>
@@ -22806,7 +22806,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>530</v>
       </c>
@@ -22826,7 +22826,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>531</v>
       </c>
@@ -22846,7 +22846,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>532</v>
       </c>
@@ -22866,7 +22866,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>533</v>
       </c>
@@ -22886,7 +22886,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>534</v>
       </c>
@@ -22906,7 +22906,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>535</v>
       </c>
@@ -22926,7 +22926,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>536</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>537</v>
       </c>
@@ -22966,7 +22966,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>538</v>
       </c>
@@ -22986,7 +22986,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>539</v>
       </c>
@@ -23006,7 +23006,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>540</v>
       </c>
@@ -23026,7 +23026,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>541</v>
       </c>
@@ -23046,7 +23046,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>542</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>543</v>
       </c>
@@ -23086,7 +23086,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>544</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>545</v>
       </c>
@@ -23126,7 +23126,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>546</v>
       </c>
@@ -23146,7 +23146,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>547</v>
       </c>
@@ -23166,7 +23166,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>548</v>
       </c>
@@ -23186,7 +23186,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>549</v>
       </c>
@@ -23206,7 +23206,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>550</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>551</v>
       </c>
@@ -23246,7 +23246,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>552</v>
       </c>
@@ -23266,7 +23266,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>553</v>
       </c>
@@ -23286,7 +23286,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>554</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>555</v>
       </c>
@@ -23326,7 +23326,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>556</v>
       </c>
@@ -23346,7 +23346,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>557</v>
       </c>
@@ -23366,7 +23366,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>558</v>
       </c>
@@ -23386,7 +23386,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>559</v>
       </c>
@@ -23406,7 +23406,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>560</v>
       </c>
@@ -23426,7 +23426,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>561</v>
       </c>
@@ -23446,7 +23446,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>562</v>
       </c>
@@ -23466,7 +23466,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>563</v>
       </c>
@@ -23486,7 +23486,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>564</v>
       </c>
@@ -23506,7 +23506,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>565</v>
       </c>
@@ -23526,7 +23526,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>566</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>567</v>
       </c>
@@ -23566,7 +23566,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>568</v>
       </c>
@@ -23586,7 +23586,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>569</v>
       </c>
@@ -23606,7 +23606,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>570</v>
       </c>
@@ -23626,7 +23626,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>571</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>572</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>573</v>
       </c>
@@ -23686,7 +23686,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>574</v>
       </c>
@@ -23706,7 +23706,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>575</v>
       </c>
@@ -23726,7 +23726,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>576</v>
       </c>
@@ -23746,7 +23746,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>577</v>
       </c>
@@ -23766,7 +23766,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>578</v>
       </c>
@@ -23786,7 +23786,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>579</v>
       </c>
@@ -23806,7 +23806,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>580</v>
       </c>
@@ -23826,7 +23826,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>581</v>
       </c>
@@ -23846,7 +23846,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>582</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>583</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>584</v>
       </c>
@@ -23906,7 +23906,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>585</v>
       </c>
@@ -23926,7 +23926,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>586</v>
       </c>
@@ -23946,7 +23946,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>587</v>
       </c>
@@ -23966,7 +23966,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>588</v>
       </c>
@@ -23986,7 +23986,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>589</v>
       </c>
@@ -24006,7 +24006,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>590</v>
       </c>
@@ -24026,7 +24026,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>591</v>
       </c>
@@ -24046,7 +24046,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>592</v>
       </c>
@@ -24066,7 +24066,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>593</v>
       </c>
@@ -24086,7 +24086,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>594</v>
       </c>
@@ -24106,7 +24106,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>595</v>
       </c>
@@ -24126,7 +24126,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>596</v>
       </c>
@@ -24146,7 +24146,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>597</v>
       </c>
@@ -24166,7 +24166,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>598</v>
       </c>
@@ -24186,7 +24186,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>599</v>
       </c>
@@ -24206,7 +24206,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>600</v>
       </c>
@@ -24226,7 +24226,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>601</v>
       </c>
@@ -24246,7 +24246,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>602</v>
       </c>
@@ -24266,7 +24266,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>603</v>
       </c>
@@ -24286,7 +24286,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>604</v>
       </c>
@@ -24306,7 +24306,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>605</v>
       </c>
@@ -24326,7 +24326,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>606</v>
       </c>
@@ -24346,7 +24346,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>607</v>
       </c>
@@ -24366,7 +24366,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>608</v>
       </c>
@@ -24386,7 +24386,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>609</v>
       </c>
@@ -24406,7 +24406,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>610</v>
       </c>
@@ -24426,7 +24426,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>611</v>
       </c>
@@ -24446,7 +24446,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>612</v>
       </c>
@@ -24466,7 +24466,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>613</v>
       </c>
@@ -24486,7 +24486,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>614</v>
       </c>
@@ -24506,7 +24506,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>615</v>
       </c>
@@ -24526,7 +24526,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>616</v>
       </c>
@@ -24546,7 +24546,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>617</v>
       </c>
@@ -24566,7 +24566,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>618</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>619</v>
       </c>
@@ -24606,7 +24606,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>620</v>
       </c>
@@ -24626,7 +24626,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>621</v>
       </c>
@@ -24646,7 +24646,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>622</v>
       </c>
@@ -24666,7 +24666,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>623</v>
       </c>
@@ -24686,7 +24686,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>624</v>
       </c>
@@ -24706,7 +24706,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>625</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>626</v>
       </c>
@@ -24746,7 +24746,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>627</v>
       </c>
@@ -24766,7 +24766,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>628</v>
       </c>
@@ -24786,7 +24786,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>629</v>
       </c>
@@ -24806,7 +24806,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>630</v>
       </c>
@@ -24826,7 +24826,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>631</v>
       </c>
@@ -24846,7 +24846,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>632</v>
       </c>
@@ -24866,7 +24866,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>633</v>
       </c>
@@ -24886,7 +24886,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>634</v>
       </c>
@@ -24906,7 +24906,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>635</v>
       </c>
@@ -24926,7 +24926,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>636</v>
       </c>
@@ -24946,7 +24946,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>637</v>
       </c>
@@ -24966,7 +24966,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>638</v>
       </c>
@@ -24986,7 +24986,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>639</v>
       </c>
@@ -25006,7 +25006,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>640</v>
       </c>
@@ -25026,7 +25026,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>641</v>
       </c>
@@ -25046,7 +25046,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>642</v>
       </c>
@@ -25066,7 +25066,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>643</v>
       </c>
@@ -25086,7 +25086,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>644</v>
       </c>
@@ -25106,7 +25106,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>645</v>
       </c>
@@ -25126,7 +25126,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>646</v>
       </c>
@@ -25146,7 +25146,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>647</v>
       </c>
@@ -25166,7 +25166,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>648</v>
       </c>
@@ -25186,7 +25186,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>649</v>
       </c>
@@ -25206,7 +25206,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>650</v>
       </c>
@@ -25226,7 +25226,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>651</v>
       </c>
@@ -25246,7 +25246,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>652</v>
       </c>
@@ -25266,7 +25266,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>653</v>
       </c>
@@ -25286,7 +25286,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>654</v>
       </c>
@@ -25306,7 +25306,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>655</v>
       </c>
@@ -25326,7 +25326,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>656</v>
       </c>
@@ -25346,7 +25346,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>657</v>
       </c>
@@ -25366,7 +25366,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>658</v>
       </c>
@@ -25386,7 +25386,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>659</v>
       </c>
@@ -25406,7 +25406,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>660</v>
       </c>
@@ -25426,7 +25426,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>661</v>
       </c>
@@ -25446,7 +25446,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>662</v>
       </c>
@@ -25466,7 +25466,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>663</v>
       </c>
@@ -25486,7 +25486,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>664</v>
       </c>
@@ -25506,7 +25506,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>665</v>
       </c>
@@ -25526,7 +25526,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>666</v>
       </c>
@@ -25546,7 +25546,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>667</v>
       </c>
@@ -25566,7 +25566,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>668</v>
       </c>
@@ -25586,7 +25586,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>669</v>
       </c>
@@ -25606,7 +25606,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>670</v>
       </c>
@@ -25626,7 +25626,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>671</v>
       </c>
@@ -25646,7 +25646,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>672</v>
       </c>
@@ -25666,7 +25666,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>673</v>
       </c>
@@ -25686,7 +25686,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>674</v>
       </c>
@@ -25706,7 +25706,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>675</v>
       </c>
@@ -25726,7 +25726,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>676</v>
       </c>
@@ -25746,7 +25746,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>677</v>
       </c>
@@ -25766,7 +25766,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>678</v>
       </c>
@@ -25786,7 +25786,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>679</v>
       </c>
@@ -25806,7 +25806,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>680</v>
       </c>
@@ -25826,7 +25826,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>681</v>
       </c>
@@ -25846,7 +25846,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>682</v>
       </c>
@@ -25866,7 +25866,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>683</v>
       </c>
@@ -25886,7 +25886,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>684</v>
       </c>
@@ -25906,7 +25906,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>685</v>
       </c>
@@ -25926,7 +25926,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>686</v>
       </c>
@@ -25946,7 +25946,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>687</v>
       </c>
@@ -25966,7 +25966,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>688</v>
       </c>
@@ -25986,7 +25986,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>689</v>
       </c>
@@ -26006,7 +26006,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>690</v>
       </c>
@@ -26026,7 +26026,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>691</v>
       </c>
@@ -26046,7 +26046,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>692</v>
       </c>
@@ -26066,7 +26066,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>693</v>
       </c>
@@ -26086,7 +26086,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>694</v>
       </c>
@@ -26106,7 +26106,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>695</v>
       </c>
@@ -26126,7 +26126,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>696</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>697</v>
       </c>
@@ -26166,7 +26166,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>698</v>
       </c>
@@ -26186,7 +26186,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>699</v>
       </c>
@@ -26206,7 +26206,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>700</v>
       </c>
@@ -26226,7 +26226,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>701</v>
       </c>
@@ -26246,7 +26246,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>702</v>
       </c>
@@ -26266,7 +26266,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>703</v>
       </c>
@@ -26286,7 +26286,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>704</v>
       </c>
@@ -26306,7 +26306,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>705</v>
       </c>
@@ -26326,7 +26326,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>706</v>
       </c>
@@ -26346,7 +26346,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>707</v>
       </c>
@@ -26366,7 +26366,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>708</v>
       </c>
@@ -26386,7 +26386,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>709</v>
       </c>
@@ -26406,7 +26406,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>710</v>
       </c>
@@ -26426,7 +26426,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>711</v>
       </c>
@@ -26446,7 +26446,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>712</v>
       </c>
@@ -26466,7 +26466,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>713</v>
       </c>
@@ -26486,7 +26486,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>714</v>
       </c>
@@ -26506,7 +26506,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>715</v>
       </c>
@@ -26526,7 +26526,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>716</v>
       </c>
@@ -26546,7 +26546,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>717</v>
       </c>
@@ -26566,7 +26566,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>718</v>
       </c>
@@ -26586,7 +26586,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>719</v>
       </c>
@@ -26606,7 +26606,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>720</v>
       </c>
@@ -26626,7 +26626,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>721</v>
       </c>
@@ -26646,7 +26646,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>722</v>
       </c>
@@ -26666,7 +26666,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>723</v>
       </c>
@@ -26686,7 +26686,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>724</v>
       </c>
@@ -26706,7 +26706,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>725</v>
       </c>
@@ -26726,7 +26726,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>726</v>
       </c>
@@ -26746,7 +26746,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>727</v>
       </c>
@@ -26766,7 +26766,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>728</v>
       </c>
@@ -26786,7 +26786,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>729</v>
       </c>
@@ -26806,7 +26806,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>730</v>
       </c>
@@ -26826,7 +26826,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>731</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>732</v>
       </c>
@@ -26866,7 +26866,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>733</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>734</v>
       </c>
@@ -26906,7 +26906,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>735</v>
       </c>
@@ -26926,7 +26926,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>736</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>737</v>
       </c>
@@ -26966,7 +26966,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>738</v>
       </c>
@@ -26986,7 +26986,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>739</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>740</v>
       </c>
@@ -27026,7 +27026,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>741</v>
       </c>
@@ -27046,7 +27046,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>742</v>
       </c>
@@ -27066,7 +27066,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>743</v>
       </c>
@@ -27086,7 +27086,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>744</v>
       </c>
@@ -27106,7 +27106,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>745</v>
       </c>
@@ -27126,7 +27126,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>746</v>
       </c>
@@ -27146,7 +27146,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>747</v>
       </c>
@@ -27166,7 +27166,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>748</v>
       </c>
@@ -27186,7 +27186,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>749</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>750</v>
       </c>
@@ -27226,7 +27226,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>751</v>
       </c>
@@ -27246,7 +27246,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>752</v>
       </c>
@@ -27266,7 +27266,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>753</v>
       </c>
@@ -27286,7 +27286,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>754</v>
       </c>
@@ -27306,7 +27306,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>755</v>
       </c>
@@ -27326,7 +27326,7 @@
         <v>2987</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>756</v>
       </c>
@@ -27346,7 +27346,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>757</v>
       </c>
@@ -27366,7 +27366,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>758</v>
       </c>
@@ -27386,7 +27386,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>759</v>
       </c>
@@ -27406,7 +27406,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>760</v>
       </c>
@@ -27426,7 +27426,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>761</v>
       </c>
@@ -27446,7 +27446,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>762</v>
       </c>
@@ -27466,7 +27466,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>763</v>
       </c>
@@ -27486,7 +27486,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>764</v>
       </c>
@@ -27506,7 +27506,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>765</v>
       </c>
@@ -27526,7 +27526,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>766</v>
       </c>
@@ -27546,7 +27546,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>767</v>
       </c>
@@ -27566,7 +27566,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>768</v>
       </c>
@@ -27586,7 +27586,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>769</v>
       </c>
@@ -27606,7 +27606,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>770</v>
       </c>
@@ -27626,7 +27626,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>771</v>
       </c>
@@ -27646,7 +27646,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>772</v>
       </c>
@@ -27666,7 +27666,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>773</v>
       </c>
@@ -27686,7 +27686,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>774</v>
       </c>
@@ -27706,7 +27706,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>775</v>
       </c>
@@ -27726,7 +27726,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>776</v>
       </c>
@@ -27746,7 +27746,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>777</v>
       </c>
@@ -27766,7 +27766,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>778</v>
       </c>
@@ -27786,7 +27786,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>779</v>
       </c>
@@ -27806,7 +27806,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>780</v>
       </c>
@@ -27826,7 +27826,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>781</v>
       </c>
@@ -27846,7 +27846,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>782</v>
       </c>
@@ -27866,7 +27866,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>783</v>
       </c>
@@ -27886,7 +27886,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>784</v>
       </c>
@@ -27906,7 +27906,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>785</v>
       </c>
@@ -27926,7 +27926,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>786</v>
       </c>
@@ -27946,7 +27946,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>787</v>
       </c>
@@ -27966,7 +27966,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>788</v>
       </c>
@@ -27986,7 +27986,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>789</v>
       </c>
@@ -28006,7 +28006,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>790</v>
       </c>
@@ -28026,7 +28026,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>791</v>
       </c>
@@ -28046,7 +28046,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>792</v>
       </c>
@@ -28066,7 +28066,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>793</v>
       </c>
@@ -28086,7 +28086,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>794</v>
       </c>
@@ -28106,7 +28106,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>795</v>
       </c>
@@ -28126,7 +28126,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>796</v>
       </c>
@@ -28146,7 +28146,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>797</v>
       </c>
@@ -28166,7 +28166,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>798</v>
       </c>
@@ -28186,7 +28186,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>799</v>
       </c>
@@ -28206,7 +28206,7 @@
         <v>3158</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>800</v>
       </c>
@@ -28226,7 +28226,7 @@
         <v>3162</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>801</v>
       </c>
@@ -28246,7 +28246,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>802</v>
       </c>
@@ -28266,7 +28266,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>803</v>
       </c>
@@ -28286,7 +28286,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>804</v>
       </c>
@@ -28306,7 +28306,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>805</v>
       </c>
@@ -28326,7 +28326,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>806</v>
       </c>
@@ -28346,7 +28346,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>807</v>
       </c>
@@ -28366,7 +28366,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>808</v>
       </c>
@@ -28386,7 +28386,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>809</v>
       </c>
@@ -28406,7 +28406,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>810</v>
       </c>
@@ -28426,7 +28426,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>811</v>
       </c>
@@ -28446,7 +28446,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>812</v>
       </c>
@@ -28466,7 +28466,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>813</v>
       </c>
@@ -28486,7 +28486,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>814</v>
       </c>
@@ -28506,7 +28506,7 @@
         <v>3215</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>815</v>
       </c>
@@ -28526,7 +28526,7 @@
         <v>3219</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>816</v>
       </c>
@@ -28546,7 +28546,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>817</v>
       </c>
@@ -28566,7 +28566,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>818</v>
       </c>
@@ -28586,7 +28586,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>819</v>
       </c>
@@ -28606,7 +28606,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>820</v>
       </c>
@@ -28626,7 +28626,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>821</v>
       </c>
@@ -28646,7 +28646,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>822</v>
       </c>
@@ -28666,7 +28666,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>823</v>
       </c>
@@ -28686,7 +28686,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>824</v>
       </c>
@@ -28706,7 +28706,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>825</v>
       </c>
@@ -28726,7 +28726,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>826</v>
       </c>
@@ -28746,7 +28746,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>827</v>
       </c>
@@ -28766,7 +28766,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>828</v>
       </c>
@@ -28786,7 +28786,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>829</v>
       </c>
@@ -28806,7 +28806,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>830</v>
       </c>
@@ -28826,7 +28826,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>831</v>
       </c>
@@ -28846,7 +28846,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>832</v>
       </c>
@@ -28866,7 +28866,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>833</v>
       </c>
@@ -28886,7 +28886,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>834</v>
       </c>
@@ -28906,7 +28906,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>835</v>
       </c>
@@ -28926,7 +28926,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>836</v>
       </c>
@@ -28946,7 +28946,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>837</v>
       </c>
@@ -28966,7 +28966,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>838</v>
       </c>
@@ -28986,7 +28986,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>839</v>
       </c>
@@ -29006,7 +29006,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>840</v>
       </c>
@@ -29026,7 +29026,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>841</v>
       </c>
@@ -29046,7 +29046,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>842</v>
       </c>
@@ -29066,7 +29066,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>843</v>
       </c>
@@ -29086,7 +29086,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>844</v>
       </c>
@@ -29106,7 +29106,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>845</v>
       </c>
@@ -29126,7 +29126,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>846</v>
       </c>
@@ -29146,7 +29146,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>847</v>
       </c>
@@ -29166,7 +29166,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>848</v>
       </c>
@@ -29186,7 +29186,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>849</v>
       </c>
@@ -29206,7 +29206,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>850</v>
       </c>
@@ -29226,7 +29226,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>851</v>
       </c>
@@ -29246,7 +29246,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>852</v>
       </c>
@@ -29266,7 +29266,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>853</v>
       </c>
@@ -29286,7 +29286,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>854</v>
       </c>
@@ -29306,7 +29306,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>855</v>
       </c>
@@ -29326,7 +29326,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>856</v>
       </c>
@@ -29346,7 +29346,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>857</v>
       </c>
@@ -29366,7 +29366,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>858</v>
       </c>
@@ -29386,7 +29386,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>859</v>
       </c>
@@ -29406,7 +29406,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>860</v>
       </c>
@@ -29426,7 +29426,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>861</v>
       </c>
@@ -29446,7 +29446,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>862</v>
       </c>
@@ -29466,7 +29466,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>863</v>
       </c>
@@ -29486,7 +29486,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>864</v>
       </c>
@@ -29506,7 +29506,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>865</v>
       </c>
@@ -29526,7 +29526,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>866</v>
       </c>
@@ -29546,7 +29546,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>867</v>
       </c>
@@ -29566,7 +29566,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>868</v>
       </c>
@@ -29586,7 +29586,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>869</v>
       </c>
@@ -29606,7 +29606,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>870</v>
       </c>
@@ -29626,7 +29626,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>871</v>
       </c>
@@ -29646,7 +29646,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>872</v>
       </c>
@@ -29666,7 +29666,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>873</v>
       </c>
@@ -29686,7 +29686,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>874</v>
       </c>
@@ -29706,7 +29706,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>875</v>
       </c>
@@ -29726,7 +29726,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>876</v>
       </c>
@@ -29746,7 +29746,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>877</v>
       </c>
@@ -29766,7 +29766,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>878</v>
       </c>
@@ -29786,7 +29786,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>879</v>
       </c>
@@ -29806,7 +29806,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>880</v>
       </c>
@@ -29826,7 +29826,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>881</v>
       </c>
@@ -29846,7 +29846,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>882</v>
       </c>
@@ -29866,7 +29866,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>883</v>
       </c>
@@ -29886,7 +29886,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>884</v>
       </c>
@@ -29906,7 +29906,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>885</v>
       </c>
@@ -29926,7 +29926,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>886</v>
       </c>
@@ -29946,7 +29946,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>887</v>
       </c>
@@ -29966,7 +29966,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>888</v>
       </c>
@@ -29986,7 +29986,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>889</v>
       </c>
@@ -30006,7 +30006,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>890</v>
       </c>
@@ -30026,7 +30026,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>891</v>
       </c>
@@ -30046,7 +30046,7 @@
         <v>3516</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>892</v>
       </c>
@@ -30066,7 +30066,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>893</v>
       </c>
@@ -30086,7 +30086,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>894</v>
       </c>
@@ -30106,7 +30106,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>895</v>
       </c>
@@ -30126,7 +30126,7 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>896</v>
       </c>
@@ -30146,7 +30146,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>897</v>
       </c>
@@ -30166,7 +30166,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>898</v>
       </c>
@@ -30186,7 +30186,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>899</v>
       </c>
@@ -30206,7 +30206,7 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>900</v>
       </c>
@@ -30226,7 +30226,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>901</v>
       </c>
@@ -30246,7 +30246,7 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>902</v>
       </c>
@@ -30266,7 +30266,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>903</v>
       </c>
@@ -30286,7 +30286,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>904</v>
       </c>
@@ -30306,7 +30306,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>905</v>
       </c>
@@ -30326,7 +30326,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>906</v>
       </c>
@@ -30346,7 +30346,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>907</v>
       </c>
@@ -30366,7 +30366,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>908</v>
       </c>
@@ -30386,7 +30386,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>909</v>
       </c>
@@ -30406,7 +30406,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>910</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>911</v>
       </c>
@@ -30446,7 +30446,7 @@
         <v>3594</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>912</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>913</v>
       </c>
@@ -30486,7 +30486,7 @@
         <v>3602</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>914</v>
       </c>
@@ -30506,7 +30506,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>915</v>
       </c>
@@ -30526,7 +30526,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>916</v>
       </c>
@@ -30546,7 +30546,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>917</v>
       </c>
@@ -30566,7 +30566,7 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>918</v>
       </c>
@@ -30586,7 +30586,7 @@
         <v>3622</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>919</v>
       </c>
@@ -30606,7 +30606,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>920</v>
       </c>
@@ -30626,7 +30626,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>921</v>
       </c>
@@ -30646,7 +30646,7 @@
         <v>3633</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>922</v>
       </c>
@@ -30666,7 +30666,7 @@
         <v>3637</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>923</v>
       </c>
@@ -30686,7 +30686,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>924</v>
       </c>
@@ -30706,7 +30706,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>925</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>926</v>
       </c>
@@ -30746,7 +30746,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>927</v>
       </c>
@@ -30766,7 +30766,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>928</v>
       </c>
@@ -30786,7 +30786,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>929</v>
       </c>
@@ -30806,7 +30806,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>930</v>
       </c>
@@ -30826,7 +30826,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>931</v>
       </c>
@@ -30846,7 +30846,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>932</v>
       </c>
@@ -30866,7 +30866,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>933</v>
       </c>
@@ -30886,7 +30886,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>934</v>
       </c>
@@ -30906,7 +30906,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>935</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>936</v>
       </c>
@@ -30946,7 +30946,7 @@
         <v>3689</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>937</v>
       </c>
@@ -30966,7 +30966,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>938</v>
       </c>
@@ -30986,7 +30986,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>939</v>
       </c>
@@ -31006,7 +31006,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>940</v>
       </c>
@@ -31026,7 +31026,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>941</v>
       </c>
@@ -31046,7 +31046,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>942</v>
       </c>
@@ -31066,7 +31066,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>943</v>
       </c>
@@ -31086,7 +31086,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>944</v>
       </c>
@@ -31106,7 +31106,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>945</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>946</v>
       </c>
@@ -31146,7 +31146,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>947</v>
       </c>
@@ -31166,7 +31166,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>948</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>949</v>
       </c>
@@ -31206,7 +31206,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>950</v>
       </c>
@@ -31226,7 +31226,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>951</v>
       </c>
@@ -31246,7 +31246,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>952</v>
       </c>
@@ -31266,7 +31266,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>953</v>
       </c>
@@ -31286,7 +31286,7 @@
         <v>3755</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>954</v>
       </c>
@@ -31306,7 +31306,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>955</v>
       </c>
@@ -31326,7 +31326,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>956</v>
       </c>
@@ -31346,7 +31346,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>957</v>
       </c>
@@ -31366,7 +31366,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>958</v>
       </c>
@@ -31386,7 +31386,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>959</v>
       </c>
@@ -31406,7 +31406,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>960</v>
       </c>
@@ -31426,7 +31426,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>961</v>
       </c>
@@ -31446,7 +31446,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>962</v>
       </c>
@@ -31466,7 +31466,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>963</v>
       </c>
@@ -31486,7 +31486,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>964</v>
       </c>
@@ -31506,7 +31506,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>965</v>
       </c>
@@ -31526,7 +31526,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>966</v>
       </c>
@@ -31546,7 +31546,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>967</v>
       </c>
@@ -31566,7 +31566,7 @@
         <v>3808</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>968</v>
       </c>
@@ -31586,7 +31586,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>969</v>
       </c>
@@ -31606,7 +31606,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>970</v>
       </c>
@@ -31626,7 +31626,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>971</v>
       </c>
@@ -31646,7 +31646,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>972</v>
       </c>
@@ -31666,7 +31666,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>973</v>
       </c>
@@ -31686,7 +31686,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>974</v>
       </c>
@@ -31706,7 +31706,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>975</v>
       </c>
@@ -31726,7 +31726,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>976</v>
       </c>
@@ -31746,7 +31746,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>977</v>
       </c>
@@ -31766,7 +31766,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>978</v>
       </c>
@@ -31786,7 +31786,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>979</v>
       </c>
@@ -31806,7 +31806,7 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>980</v>
       </c>
@@ -31826,7 +31826,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>981</v>
       </c>
@@ -31846,7 +31846,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>982</v>
       </c>
@@ -31866,7 +31866,7 @@
         <v>3868</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>983</v>
       </c>
@@ -31886,7 +31886,7 @@
         <v>3871</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>984</v>
       </c>
@@ -31906,7 +31906,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>985</v>
       </c>
@@ -31926,7 +31926,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>986</v>
       </c>
@@ -31946,7 +31946,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>987</v>
       </c>
@@ -31966,7 +31966,7 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>988</v>
       </c>
@@ -31986,7 +31986,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>989</v>
       </c>
@@ -32006,7 +32006,7 @@
         <v>3893</v>
       </c>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A991">
         <v>990</v>
       </c>
@@ -32026,7 +32026,7 @@
         <v>3897</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>991</v>
       </c>
@@ -32046,7 +32046,7 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A993">
         <v>992</v>
       </c>
@@ -32066,7 +32066,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>993</v>
       </c>
@@ -32086,7 +32086,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>994</v>
       </c>
@@ -32106,7 +32106,7 @@
         <v>3912</v>
       </c>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>995</v>
       </c>
@@ -32126,7 +32126,7 @@
         <v>3916</v>
       </c>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>996</v>
       </c>
@@ -32146,7 +32146,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>997</v>
       </c>
@@ -32166,7 +32166,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>998</v>
       </c>
@@ -32186,7 +32186,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>999</v>
       </c>
@@ -32206,7 +32206,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1001">
         <v>1000</v>
       </c>
@@ -32232,6 +32232,10 @@
     <hyperlink ref="D3" r:id="rId2" xr:uid="{3E6C0C6D-1667-4E26-ABC5-58231CE6CE23}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{9A9BCB44-3474-4A07-AF6C-98BFD8CA6B02}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{A63B8066-8E3A-4008-A6CA-597BEB5F31CF}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{33F05B95-978E-47EE-850C-B0F0BC1EC777}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{2FD345C1-BA23-4054-A78F-42AD94660420}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{74FFA38B-0E2F-4773-9A1A-1EA6948BA611}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{B4D2791B-7B0D-4AAF-B7DA-8EFCB6EA30CF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
